--- a/output/calorimetry/ds.2.dsc/data.xlsx
+++ b/output/calorimetry/ds.2.dsc/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve">PLP</t>
   </si>
@@ -61,28 +61,31 @@
     <t xml:space="preserve">res.rel</t>
   </si>
   <si>
-    <t xml:space="preserve">cnst</t>
+    <t xml:space="preserve">Constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St.Deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-Inf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -1189,23 +1192,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1213,10 +1216,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1865,7 +1868,7 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -1942,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -1994,10 +1997,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -2005,151 +2008,151 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2168,7 +2171,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">

--- a/output/calorimetry/ds.2.dsc/data.xlsx
+++ b/output/calorimetry/ds.2.dsc/data.xlsx
@@ -23,12 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">PLP</t>
   </si>
   <si>
-    <t xml:space="preserve">MF3H</t>
+    <t xml:space="preserve">T3H</t>
   </si>
   <si>
     <t xml:space="preserve">Comp</t>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">res.rel</t>
   </si>
   <si>
+    <t xml:space="preserve">Component</t>
+  </si>
+  <si>
     <t xml:space="preserve">Constant</t>
   </si>
   <si>
@@ -70,9 +73,18 @@
     <t xml:space="preserve">Validity</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">OK</t>
   </si>
   <si>
+    <t xml:space="preserve">5.4061110496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0205130354010432</t>
+  </si>
+  <si>
     <t xml:space="preserve">-Inf</t>
   </si>
   <si>
@@ -91,10 +103,10 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">tot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3H</t>
   </si>
   <si>
     <t xml:space="preserve">0.000866232</t>
@@ -1154,10 +1166,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -1192,23 +1204,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1216,10 +1228,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1782,38 +1794,50 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>5.4061110496521</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0205130354010432</v>
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1832,7 +1856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1862,13 +1886,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -1945,39 +1969,17 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1997,10 +1999,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -2008,151 +2010,151 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2171,7 +2173,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">

--- a/output/calorimetry/ds.2.dsc/data.xlsx
+++ b/output/calorimetry/ds.2.dsc/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">PLP</t>
   </si>
@@ -71,12 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">Validity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK</t>
   </si>
   <si>
     <t xml:space="preserve">5.4061110496521</t>
@@ -1166,19 +1160,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+      <c r="A2"/>
+      <c r="B2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1204,15 +1194,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1220,7 +1210,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1228,10 +1218,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1800,44 +1790,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1856,7 +1818,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1886,45 +1848,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>50.7744283493441</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-50.7744283493441</v>
-      </c>
-      <c r="C4" t="n">
         <v>0.534436612020058</v>
       </c>
     </row>
@@ -1969,15 +1909,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1999,10 +1939,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -2015,146 +1955,146 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2173,7 +2113,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">

--- a/output/calorimetry/ds.2.dsc/data.xlsx
+++ b/output/calorimetry/ds.2.dsc/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">PLP</t>
   </si>
@@ -73,15 +73,6 @@
     <t xml:space="preserve">Validity</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4061110496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0205130354010432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-Inf</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
@@ -95,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">tot</t>
@@ -1160,22 +1148,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1194,15 +1170,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1210,7 +1186,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1218,10 +1194,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1792,14 +1768,14 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
+      <c r="B2" t="n">
+        <v>5.4061110496521</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0205130354010432</v>
+      </c>
+      <c r="D2" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +1794,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1848,13 +1824,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -1909,15 +1885,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1939,10 +1915,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -1955,146 +1931,146 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2113,7 +2089,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
